--- a/qcm_data.xlsx
+++ b/qcm_data.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meriem Layadi</t>
+          <t>Meriem Ghersi</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sara </t>
+          <t>mey Layadi</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>Lina Lagab</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>moh</t>
+          <t>Nassim Hessas</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nassim Hessas</t>
+          <t>Said Mouhoun</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mermeoo</t>
+          <t>sousou</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>meyyy</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sousou</t>
+          <t>merriem</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mimi</t>
+          <t>yara</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,13 +1383,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2/20</t>
+          <t>3/9</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3/20</t>
+          <t>2/8</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1413,22 +1413,82 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4/20</t>
+          <t>5/9</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>15</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>16</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>5/20</t>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2/9</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>16</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2/9</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1811,37 +1871,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Which of the following is a BI tool?</t>
+          <t>What does the map() function do in Python?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>Applies a function to each element of an iterable</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Creates a geographical map</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Power BI</t>
+          <t>Merges two lists</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Power BI</t>
+          <t>Applies a function to each element of an iterable</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Power BI is a popular BI tool for data visualization and analysis.</t>
+          <t>The map() function takes a function and an iterable as input and applies the function to each element of the iterable.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Business Intillegence</t>
+          <t>python</t>
         </is>
       </c>
     </row>
@@ -2049,12 +2109,36 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>What is the role of a Data Mart in BI?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>To store raw data</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>To provide a subset of data for specific business needs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>To clean data</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>To provide a subset of data for specific business needs</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A Data Mart is a smaller, focused version of a Data Warehouse.</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>Business Intillegence</t>
@@ -2065,12 +2149,36 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is the primary goal of Business Intelligence (BI)?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Power BI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Power BI</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Power BI is a popular BI tool for data visualization and analysis.</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>Business Intillegence</t>
@@ -2081,12 +2189,36 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What is the purpose of a KPI in BI?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>To measure performance</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To clean data</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>To automate workflows</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>To measure performance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>KPIs (Key Performance Indicators) are used to track and measure business performance.</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>Business Intillegence</t>
@@ -2097,37 +2229,401 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Which of the following is NOT a BI tool?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>QlikView</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAP BusinessObjects</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Photoshop</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Photoshop</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Photoshop is a graphic design tool, not a BI tool.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Business Intillegence</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What is the time complexity of a binary search algorithm?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> O(n)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>O(log n)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> O(n^2)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>O(log n)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Binary search divides the search space in half with each iteration, resulting in logarithmic time complexity.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Which sorting algorithm has the worst-case time complexity of O(n^2)?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Merge Sort</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Quick Sort</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bubble Sort</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bubble Sort</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Bubble Sort has a worst-case time complexity of O(n^2).</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What is the purpose of a hash table?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>To sort data</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>To store key-value pairs for fast lookups</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>To perform mathematical operations</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>To store key-value pairs for fast lookups</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hash tables provide fast access to data using keys.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Which algorithm is used to find the shortest path in a graph?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dijkstra's Algorithm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Bubble Sort</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dijkstra's Algorithm</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dijkstra's Algorithm is used to find the shortest path in a weighted graph.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Which data structure uses the LIFO principle?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Queue</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Linked List</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A Stack follows the Last-In-First-Out (LIFO) principle.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What is the purpose of dynamic programming?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>To solve problems by breaking them into smaller subproblems</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>To sort data</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>To perform mathematical operations</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>To solve problems by breaking them into smaller subproblems</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dynamic programming optimizes problems by storing solutions to subproblems.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Which algorithm is used to detect cycles in a graph?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Depth-First Search (DFS)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Breadth-First Search (BFS)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DFS can be used to detect cycles in a graph.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Which algorithm is used to sort a list using the "divide and conquer" method?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bubble Sort</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Quick Sort</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Insertion Sort</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Quick Sort</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Quick Sort uses the "divide and conquer" method by dividing the list into sublists around a pivot and then sorting them recursively.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What is the space complexity of the Merge Sort algorithm?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>O(1)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>O(n)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>O(log n)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>O(n)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Merge Sort requires additional space to store the merged sublists, resulting in a space complexity of O(n).</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
